--- a/medicine/Enfance/Chapeau_rond_rouge/Chapeau_rond_rouge.xlsx
+++ b/medicine/Enfance/Chapeau_rond_rouge/Chapeau_rond_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau rond rouge est un album de littérature jeunesse écrit et illustré par Geoffroy de Pennart, publié en 2004 aux éditions Kaléidoscope. 
 </t>
@@ -511,7 +523,9 @@
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chapeau rond rouge
 Le loup
@@ -545,9 +559,11 @@
           <t>Les thèmes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conte détourné (Le Petit Chaperon rouge[1],[2],[3]), loup, humour.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conte détourné (Le Petit Chaperon rouge), loup, humour.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Suite</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une suite paraît en 2011, Le Retour de Chapeau rond rouge, où « Geoffroy de Pennart revisite quelques contes de fées avec l’humour, la modernité et la vitalité qu’on lui connaît[4] ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une suite paraît en 2011, Le Retour de Chapeau rond rouge, où « Geoffroy de Pennart revisite quelques contes de fées avec l’humour, la modernité et la vitalité qu’on lui connaît ».
 </t>
         </is>
       </c>
